--- a/biology/Botanique/Quiinacées/Quiinacées.xlsx
+++ b/biology/Botanique/Quiinacées/Quiinacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quiinac%C3%A9es</t>
+          <t>Quiinacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Quiinaceae (les Quiinacées) sont une famille de plantes à fleurs dicotylédones qui comprend 50 espèces réparties en 4 genres :
 Froesia, Lacunaria, Quiina, Touroulia.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quiinac%C3%A9es</t>
+          <t>Quiinacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Quiina qui n'est pas lié au chiffre "cinq" mais est issu de « guiina-rana » ou « quiina-rana », nom de cette plante en dialecte Garipon ou Karipúna[1], tribu amazonienne contemporaine du botaniste Jean Baptiste Aublet[2] qui travailla sur la flore de Guyane dans les années 1760.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Quiina qui n'est pas lié au chiffre "cinq" mais est issu de « guiina-rana » ou « quiina-rana », nom de cette plante en dialecte Garipon ou Karipúna, tribu amazonienne contemporaine du botaniste Jean Baptiste Aublet qui travailla sur la flore de Guyane dans les années 1760.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quiinac%C3%A9es</t>
+          <t>Quiinacées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place cette famille dans l'ordre des Malpighiales, (proche et parfois incluse dans les Ochnacées).
-En classification phylogénétique APG III (2009)[3], cette famille est invalide et ses genres sont incorporés dans la famille Ochnaceae.
+En classification phylogénétique APG III (2009), cette famille est invalide et ses genres sont incorporés dans la famille Ochnaceae.
 </t>
         </is>
       </c>
